--- a/experiments/compas_grid_search.xlsx
+++ b/experiments/compas_grid_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD7AA9-C165-4E11-80BD-88FADFF1AEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726E7972-425D-4391-9393-E3C5CEC7EDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{C39F941F-AFCA-49BF-A1FF-903392D00341}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C39F941F-AFCA-49BF-A1FF-903392D00341}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>LR</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>c4 spd</t>
+  </si>
+  <si>
+    <t>bwn 1 &amp; 10</t>
   </si>
 </sst>
 </file>
@@ -458,13 +461,13 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -478,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0.05</v>
       </c>
@@ -492,7 +495,7 @@
         <v>0.68769999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.03</v>
       </c>
@@ -506,7 +509,7 @@
         <v>0.6845</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -520,7 +523,7 @@
         <v>0.68279999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.01</v>
       </c>
@@ -534,7 +537,7 @@
         <v>0.68120000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -548,7 +551,7 @@
         <v>0.67959999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -562,7 +565,7 @@
         <v>0.67959999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1E-4</v>
       </c>
@@ -576,7 +579,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -590,7 +593,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -604,7 +607,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -618,7 +621,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -632,7 +635,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -646,7 +649,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -660,7 +663,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0.01</v>
       </c>
@@ -674,7 +677,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -688,7 +691,7 @@
         <v>0.6764</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1E-4</v>
       </c>
@@ -702,7 +705,7 @@
         <v>0.6764</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -716,7 +719,7 @@
         <v>0.6764</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -730,7 +733,7 @@
         <v>0.6764</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -744,7 +747,7 @@
         <v>0.6764</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0.01</v>
       </c>
@@ -758,7 +761,7 @@
         <v>0.6764</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0.01</v>
       </c>
@@ -772,7 +775,7 @@
         <v>0.6764</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0.05</v>
       </c>
@@ -786,7 +789,7 @@
         <v>0.6764</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>0.05</v>
       </c>
@@ -800,7 +803,7 @@
         <v>0.6764</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -814,7 +817,7 @@
         <v>0.67479999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -828,7 +831,7 @@
         <v>0.67479999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -842,7 +845,7 @@
         <v>0.67479999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -856,7 +859,7 @@
         <v>0.67479999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -870,7 +873,7 @@
         <v>0.67479999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>0.01</v>
       </c>
@@ -884,7 +887,7 @@
         <v>0.67479999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -898,7 +901,7 @@
         <v>0.67310000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -912,7 +915,7 @@
         <v>0.67310000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1E-4</v>
       </c>
@@ -926,7 +929,7 @@
         <v>0.67310000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -940,7 +943,7 @@
         <v>0.67310000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>0.03</v>
       </c>
@@ -954,7 +957,7 @@
         <v>0.67310000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -968,7 +971,7 @@
         <v>0.67149999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -982,7 +985,7 @@
         <v>0.67149999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -996,7 +999,7 @@
         <v>0.67149999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>0.67149999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1E-3</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>0.67149999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1E-3</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>0.67149999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1E-3</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>0.67149999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>0.67149999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>0.03</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>0.67149999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>0.05</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>0.67149999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>0.05</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>0.67149999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>0.66990000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>0.66990000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>0.66990000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1E-4</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>0.66990000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1E-3</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>0.66990000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>0.66990000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>1E-3</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>0.66830000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>1E-3</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>0.66830000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>0.66830000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>0.66830000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>1E-4</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>1E-4</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>0.03</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>0.66339999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>0.66339999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>0.66339999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>1E-3</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>0.66339999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>0.66339999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>0.03</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>0.66339999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>0.66180000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>1E-4</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>0.66180000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>0.66180000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>0.66180000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>0.05</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>0.66180000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>0.66020000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>0.66020000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>1E-3</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>0.66020000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>0.65859999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>0.65859999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>0.01</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>0.65859999999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>0.03</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>0.65859999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>0.03</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>0.65859999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>0.05</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>0.65859999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>0.05</v>
       </c>
@@ -1668,7 +1671,7 @@
         <v>0.65859999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>0.01</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>0.65529999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>0.65529999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>0.65529999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>1E-3</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>0.65529999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>0.03</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>0.65529999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>0.65369999999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>1E-4</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>0.65369999999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>0.65210000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>0.01</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>0.65210000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>0.65049999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>0.01</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>0.65049999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>0.05</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>0.65049999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>0.05</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>0.65049999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>0.6472</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>0.64559999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>1E-4</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>1E-4</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>0.64239999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>0.64239999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>0.63919999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>0.01</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>0.63749999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>0.03</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>0.63749999999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>1E-3</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>0.63109999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>0.63109999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>0.62619999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>0.62619999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>0.62139999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>0.03</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>0.61970000000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>0.05</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>0.61970000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>0.60680000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>0.5615</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>0.5615</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>0.53879999999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>1E-4</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>0.53879999999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>1E-4</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>0.53879999999999995</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>0.03</v>
       </c>
@@ -2270,7 +2273,7 @@
         <v>0.53879999999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>0.05</v>
       </c>
@@ -2284,7 +2287,7 @@
         <v>0.53879999999999995</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>0.49509999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>1E-3</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>1E-3</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>0.01</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>0.01</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>0.03</v>
       </c>
@@ -2466,7 +2469,7 @@
         <v>0.4612</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>0.45950000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2494,1594 +2497,1594 @@
         <v>0.45950000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" s="2"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" s="2"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" s="2"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" s="2"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" s="2"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" s="2"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" s="2"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" s="2"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" s="2"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" s="2"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" s="2"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" s="2"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" s="2"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" s="2"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" s="2"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" s="2"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" s="2"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" s="2"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" s="2"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" s="2"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" s="2"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" s="2"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" s="2"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" s="2"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" s="2"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" s="2"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" s="2"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" s="2"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" s="2"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" s="2"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B430" s="2"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B437" s="2"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B438" s="2"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B444" s="2"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B445" s="2"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449" s="2"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B451" s="2"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B452" s="2"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B461" s="2"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B464" s="2"/>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B471" s="2"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B474" s="2"/>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B475" s="2"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B483" s="2"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B484" s="2"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B490" s="2"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B494" s="2"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B495" s="2"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B497" s="2"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B498" s="2"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B501" s="2"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B502" s="2"/>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B506" s="2"/>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B511" s="2"/>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B514" s="2"/>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B519" s="2"/>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B520" s="2"/>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B522" s="2"/>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B528" s="2"/>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B531" s="2"/>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B532" s="2"/>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B536" s="2"/>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B549" s="2"/>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B550" s="2"/>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B552" s="2"/>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B553" s="2"/>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B561" s="2"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B562" s="2"/>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B563" s="2"/>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B564" s="2"/>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B569" s="2"/>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B570" s="2"/>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B572" s="2"/>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B575" s="2"/>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B578" s="2"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B582" s="2"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B587" s="2"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B588" s="2"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B593" s="2"/>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B594" s="2"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B599" s="2"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B601" s="2"/>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B603" s="2"/>
     </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B609" s="2"/>
     </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B610" s="2"/>
     </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B611" s="2"/>
     </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B614" s="2"/>
     </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B616" s="2"/>
     </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B618" s="2"/>
     </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B619" s="2"/>
     </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B620" s="2"/>
     </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B621" s="2"/>
     </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B623" s="2"/>
     </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B626" s="2"/>
     </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B627" s="2"/>
     </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B636" s="2"/>
     </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B637" s="2"/>
     </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B638" s="2"/>
     </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B642" s="2"/>
     </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B643" s="2"/>
     </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B645" s="2"/>
     </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B646" s="2"/>
     </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B649" s="2"/>
     </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B650" s="2"/>
     </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B652" s="2"/>
     </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B653" s="2"/>
     </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B654" s="2"/>
     </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B660" s="2"/>
     </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B661" s="2"/>
     </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B662" s="2"/>
     </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B663" s="2"/>
     </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B665" s="2"/>
     </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B666" s="2"/>
     </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B667" s="2"/>
     </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B668" s="2"/>
     </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B671" s="2"/>
     </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B672" s="2"/>
     </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B674" s="2"/>
     </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B675" s="2"/>
     </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B676" s="2"/>
     </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B678" s="2"/>
     </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B681" s="2"/>
     </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B683" s="2"/>
     </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B687" s="2"/>
     </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B691" s="2"/>
     </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B692" s="2"/>
     </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B693" s="2"/>
     </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B696" s="2"/>
     </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B708" s="2"/>
     </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B710" s="2"/>
     </row>
-    <row r="715" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B715" s="2"/>
     </row>
-    <row r="716" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B716" s="2"/>
     </row>
-    <row r="717" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B717" s="2"/>
     </row>
-    <row r="719" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B719" s="2"/>
     </row>
-    <row r="724" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B724" s="2"/>
     </row>
-    <row r="725" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B725" s="2"/>
     </row>
-    <row r="726" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B726" s="2"/>
     </row>
-    <row r="728" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B728" s="2"/>
     </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B730" s="2"/>
     </row>
-    <row r="735" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B735" s="2"/>
     </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B739" s="2"/>
     </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B742" s="2"/>
     </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B744" s="2"/>
     </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B747" s="2"/>
     </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B748" s="2"/>
     </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B749" s="2"/>
     </row>
-    <row r="757" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B757" s="2"/>
     </row>
-    <row r="758" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B758" s="2"/>
     </row>
-    <row r="760" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B760" s="2"/>
     </row>
-    <row r="762" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B762" s="2"/>
     </row>
-    <row r="766" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B766" s="2"/>
     </row>
-    <row r="767" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B767" s="2"/>
     </row>
-    <row r="768" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B768" s="2"/>
     </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B769" s="2"/>
     </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B770" s="2"/>
     </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B772" s="2"/>
     </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B773" s="2"/>
     </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B774" s="2"/>
     </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B775" s="2"/>
     </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B780" s="2"/>
     </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B781" s="2"/>
     </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B782" s="2"/>
     </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B783" s="2"/>
     </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B784" s="2"/>
     </row>
-    <row r="790" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B790" s="2"/>
     </row>
-    <row r="792" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B792" s="2"/>
     </row>
-    <row r="793" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B793" s="2"/>
     </row>
-    <row r="797" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B797" s="2"/>
     </row>
-    <row r="799" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B799" s="2"/>
     </row>
-    <row r="800" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B800" s="2"/>
     </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B802" s="2"/>
     </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B804" s="2"/>
     </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B808" s="2"/>
     </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B811" s="2"/>
     </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B813" s="2"/>
     </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B823" s="2"/>
     </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B824" s="2"/>
     </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B825" s="2"/>
     </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B829" s="2"/>
     </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B830" s="2"/>
     </row>
-    <row r="834" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B834" s="2"/>
     </row>
-    <row r="835" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B835" s="2"/>
     </row>
-    <row r="836" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B836" s="2"/>
     </row>
-    <row r="842" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B842" s="2"/>
     </row>
-    <row r="844" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B844" s="2"/>
     </row>
-    <row r="845" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B845" s="2"/>
     </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B853" s="2"/>
     </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B857" s="2"/>
     </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B859" s="2"/>
     </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B860" s="2"/>
     </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B861" s="2"/>
     </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B864" s="2"/>
     </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B865" s="2"/>
     </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B868" s="2"/>
     </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B869" s="2"/>
     </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B877" s="2"/>
     </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B878" s="2"/>
     </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B879" s="2"/>
     </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B881" s="2"/>
     </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B884" s="2"/>
     </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B885" s="2"/>
     </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B889" s="2"/>
     </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B890" s="2"/>
     </row>
-    <row r="891" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B891" s="2"/>
     </row>
-    <row r="893" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B893" s="2"/>
     </row>
-    <row r="894" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B894" s="2"/>
     </row>
-    <row r="903" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="903" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B903" s="2"/>
     </row>
-    <row r="904" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="904" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B904" s="2"/>
     </row>
-    <row r="907" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="907" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B907" s="2"/>
     </row>
-    <row r="909" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="909" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B909" s="2"/>
     </row>
-    <row r="911" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="911" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B911" s="2"/>
     </row>
-    <row r="912" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="912" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B912" s="2"/>
     </row>
-    <row r="913" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="913" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B913" s="2"/>
     </row>
-    <row r="914" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="914" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B914" s="2"/>
     </row>
-    <row r="915" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="915" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B915" s="2"/>
     </row>
-    <row r="918" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="918" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B918" s="2"/>
     </row>
-    <row r="919" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="919" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B919" s="2"/>
     </row>
-    <row r="921" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="921" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B921" s="2"/>
     </row>
-    <row r="925" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="925" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B925" s="2"/>
     </row>
-    <row r="926" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="926" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B926" s="2"/>
     </row>
-    <row r="931" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="931" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B931" s="2"/>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B932" s="2"/>
     </row>
-    <row r="933" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="933" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B933" s="2"/>
     </row>
-    <row r="934" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="934" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B934" s="2"/>
     </row>
-    <row r="947" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="947" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B947" s="2"/>
     </row>
-    <row r="956" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="956" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B956" s="2"/>
     </row>
-    <row r="957" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="957" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B957" s="2"/>
     </row>
-    <row r="966" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B966" s="2"/>
     </row>
-    <row r="969" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="969" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B969" s="2"/>
     </row>
-    <row r="973" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="973" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B973" s="2"/>
     </row>
-    <row r="981" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="981" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B981" s="2"/>
     </row>
-    <row r="983" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="983" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B983" s="2"/>
     </row>
-    <row r="986" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="986" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B986" s="2"/>
     </row>
-    <row r="987" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="987" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B987" s="2"/>
     </row>
-    <row r="988" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="988" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B988" s="2"/>
     </row>
-    <row r="991" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="991" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B991" s="2"/>
     </row>
-    <row r="993" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="993" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B993" s="2"/>
     </row>
-    <row r="1000" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1000" s="2"/>
     </row>
-    <row r="1006" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1006" s="2"/>
     </row>
-    <row r="1010" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1010" s="2"/>
     </row>
-    <row r="1012" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1012" s="2"/>
     </row>
-    <row r="1013" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1013" s="2"/>
     </row>
-    <row r="1016" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1016" s="2"/>
     </row>
-    <row r="1019" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1019" s="2"/>
     </row>
-    <row r="1025" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1025" s="2"/>
     </row>
-    <row r="1026" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1026" s="2"/>
     </row>
-    <row r="1033" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1033" s="2"/>
     </row>
-    <row r="1035" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1035" s="2"/>
     </row>
-    <row r="1036" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1036" s="2"/>
     </row>
-    <row r="1037" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1037" s="2"/>
     </row>
-    <row r="1038" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1038" s="2"/>
     </row>
-    <row r="1041" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1041" s="2"/>
     </row>
-    <row r="1043" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1043" s="2"/>
     </row>
-    <row r="1049" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1049" s="2"/>
     </row>
-    <row r="1050" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1050" s="2"/>
     </row>
-    <row r="1052" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1052" s="2"/>
     </row>
-    <row r="1056" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1056" s="2"/>
     </row>
-    <row r="1057" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1057" s="2"/>
     </row>
-    <row r="1058" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1058" s="2"/>
     </row>
-    <row r="1060" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1060" s="2"/>
     </row>
-    <row r="1065" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1065" s="2"/>
     </row>
-    <row r="1066" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1066" s="2"/>
     </row>
-    <row r="1068" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1068" s="2"/>
     </row>
-    <row r="1078" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1078" s="2"/>
     </row>
-    <row r="1085" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1085" s="2"/>
     </row>
-    <row r="1089" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1089" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1089" s="2"/>
     </row>
-    <row r="1094" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1094" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1094" s="2"/>
     </row>
-    <row r="1095" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1095" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1095" s="2"/>
     </row>
-    <row r="1096" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1096" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1096" s="2"/>
     </row>
-    <row r="1097" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1097" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1097" s="2"/>
     </row>
-    <row r="1100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1100" s="2"/>
     </row>
-    <row r="1104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1104" s="2"/>
     </row>
-    <row r="1105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1105" s="2"/>
     </row>
-    <row r="1106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1106" s="2"/>
     </row>
-    <row r="1108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1108" s="2"/>
     </row>
-    <row r="1112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1112" s="2"/>
     </row>
-    <row r="1115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1115" s="2"/>
     </row>
-    <row r="1117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1117" s="2"/>
     </row>
-    <row r="1119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1119" s="2"/>
     </row>
-    <row r="1120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1120" s="2"/>
     </row>
-    <row r="1123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1123" s="2"/>
     </row>
-    <row r="1128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1128" s="2"/>
     </row>
-    <row r="1132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1132" s="2"/>
     </row>
-    <row r="1133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1133" s="2"/>
     </row>
-    <row r="1137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1137" s="2"/>
     </row>
-    <row r="1138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1138" s="2"/>
     </row>
-    <row r="1139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1139" s="2"/>
     </row>
-    <row r="1145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1145" s="2"/>
     </row>
-    <row r="1148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1148" s="2"/>
     </row>
-    <row r="1151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1151" s="2"/>
     </row>
-    <row r="1157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1157" s="2"/>
     </row>
-    <row r="1159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1159" s="2"/>
     </row>
-    <row r="1165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1165" s="2"/>
     </row>
-    <row r="1166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1166" s="2"/>
     </row>
-    <row r="1167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1167" s="2"/>
     </row>
-    <row r="1174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1174" s="2"/>
     </row>
-    <row r="1180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1180" s="2"/>
     </row>
-    <row r="1183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1183" s="2"/>
     </row>
-    <row r="1189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1189" s="2"/>
     </row>
-    <row r="1193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1193" s="2"/>
     </row>
-    <row r="1194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1194" s="2"/>
     </row>
-    <row r="1197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1197" s="2"/>
     </row>
-    <row r="1199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1199" s="2"/>
     </row>
-    <row r="1200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1200" s="2"/>
     </row>
-    <row r="1203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1203" s="2"/>
     </row>
-    <row r="1204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1204" s="2"/>
     </row>
-    <row r="1206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1206" s="2"/>
     </row>
-    <row r="1214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1214" s="2"/>
     </row>
-    <row r="1216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1216" s="2"/>
     </row>
-    <row r="1219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1219" s="2"/>
     </row>
-    <row r="1226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1226" s="2"/>
     </row>
-    <row r="1231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1231" s="2"/>
     </row>
-    <row r="1232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1232" s="2"/>
     </row>
-    <row r="1237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1237" s="2"/>
     </row>
-    <row r="1241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1241" s="2"/>
     </row>
-    <row r="1244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1244" s="2"/>
     </row>
-    <row r="1247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1247" s="2"/>
     </row>
-    <row r="1248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1248" s="2"/>
     </row>
-    <row r="1251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1251" s="2"/>
     </row>
-    <row r="1253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1253" s="2"/>
     </row>
-    <row r="1257" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1257" s="2"/>
     </row>
-    <row r="1261" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1261" s="2"/>
     </row>
-    <row r="1262" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1262" s="2"/>
     </row>
-    <row r="1263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1263" s="2"/>
     </row>
-    <row r="1264" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1264" s="2"/>
     </row>
-    <row r="1266" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1266" s="2"/>
     </row>
-    <row r="1269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1269" s="2"/>
     </row>
-    <row r="1270" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1270" s="2"/>
     </row>
-    <row r="1272" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1272" s="2"/>
     </row>
-    <row r="1281" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1281" s="2"/>
     </row>
-    <row r="1286" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1286" s="2"/>
     </row>
-    <row r="1288" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1288" s="2"/>
     </row>
-    <row r="1291" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1291" s="2"/>
     </row>
-    <row r="1292" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1292" s="2"/>
     </row>
-    <row r="1294" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1294" s="2"/>
     </row>
-    <row r="1298" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1298" s="2"/>
     </row>
-    <row r="1299" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1299" s="2"/>
     </row>
-    <row r="1300" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1300" s="2"/>
     </row>
-    <row r="1301" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1301" s="2"/>
     </row>
-    <row r="1305" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1305" s="2"/>
     </row>
-    <row r="1306" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1306" s="2"/>
     </row>
-    <row r="1307" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1307" s="2"/>
     </row>
-    <row r="1311" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1311" s="2"/>
     </row>
-    <row r="1317" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1317" s="2"/>
     </row>
-    <row r="1319" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1319" s="2"/>
     </row>
-    <row r="1324" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1324" s="2"/>
     </row>
-    <row r="1327" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1327" s="2"/>
     </row>
-    <row r="1337" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1337" s="2"/>
     </row>
-    <row r="1338" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1338" s="2"/>
     </row>
-    <row r="1343" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1343" s="2"/>
     </row>
-    <row r="1348" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1348" s="2"/>
     </row>
-    <row r="1349" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1349" s="2"/>
     </row>
-    <row r="1354" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1354" s="2"/>
     </row>
-    <row r="1358" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1358" s="2"/>
     </row>
-    <row r="1364" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1364" s="2"/>
     </row>
-    <row r="1365" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1365" s="2"/>
     </row>
-    <row r="1371" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1371" s="2"/>
     </row>
-    <row r="1372" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1372" s="2"/>
     </row>
-    <row r="1374" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1374" s="2"/>
     </row>
-    <row r="1378" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1378" s="2"/>
     </row>
-    <row r="1382" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1382" s="2"/>
     </row>
-    <row r="1384" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1384" s="2"/>
     </row>
-    <row r="1387" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1387" s="2"/>
     </row>
-    <row r="1394" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1394" s="2"/>
     </row>
-    <row r="1398" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1398" s="2"/>
     </row>
-    <row r="1400" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1400" s="2"/>
     </row>
-    <row r="1401" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1401" s="2"/>
     </row>
-    <row r="1402" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1402" s="2"/>
     </row>
-    <row r="1403" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1403" s="2"/>
     </row>
-    <row r="1404" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1404" s="2"/>
     </row>
-    <row r="1416" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1416" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1416" s="2"/>
     </row>
-    <row r="1417" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1417" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1417" s="2"/>
     </row>
-    <row r="1419" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1419" s="2"/>
     </row>
-    <row r="1423" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1423" s="2"/>
     </row>
-    <row r="1424" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1424" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1424" s="2"/>
     </row>
-    <row r="1425" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1425" s="2"/>
     </row>
-    <row r="1439" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1439" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1439" s="2"/>
     </row>
-    <row r="1440" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1440" s="2"/>
     </row>
-    <row r="1443" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1443" s="2"/>
     </row>
-    <row r="1452" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1452" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1452" s="2"/>
     </row>
-    <row r="1454" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1454" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1454" s="2"/>
     </row>
-    <row r="1455" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1455" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1455" s="2"/>
     </row>
-    <row r="1457" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1457" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1457" s="2"/>
     </row>
-    <row r="1458" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1458" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1458" s="2"/>
     </row>
-    <row r="1463" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1463" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1463" s="2"/>
     </row>
-    <row r="1468" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1468" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1468" s="2"/>
     </row>
-    <row r="1470" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1470" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1470" s="2"/>
     </row>
-    <row r="1471" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1471" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1471" s="2"/>
     </row>
-    <row r="1472" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1472" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1472" s="2"/>
     </row>
-    <row r="1475" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1475" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1475" s="2"/>
     </row>
-    <row r="1476" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1476" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1476" s="2"/>
     </row>
-    <row r="1477" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1477" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1477" s="2"/>
     </row>
-    <row r="1478" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1478" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1478" s="2"/>
     </row>
-    <row r="1486" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1486" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1486" s="2"/>
     </row>
-    <row r="1489" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1489" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1489" s="2"/>
     </row>
-    <row r="1490" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1490" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1490" s="2"/>
     </row>
-    <row r="1491" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1491" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1491" s="2"/>
     </row>
-    <row r="1492" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1492" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1492" s="2"/>
     </row>
-    <row r="1494" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1494" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1494" s="2"/>
     </row>
-    <row r="1495" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1495" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1495" s="2"/>
     </row>
-    <row r="1496" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1496" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1496" s="2"/>
     </row>
-    <row r="1505" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1505" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1505" s="2"/>
     </row>
-    <row r="1507" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1507" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1507" s="2"/>
     </row>
-    <row r="1510" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1510" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1510" s="2"/>
     </row>
-    <row r="1517" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1517" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1517" s="2"/>
     </row>
-    <row r="1520" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1520" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1520" s="2"/>
     </row>
-    <row r="1524" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1524" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1524" s="2"/>
     </row>
-    <row r="1526" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1526" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1526" s="2"/>
     </row>
-    <row r="1530" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1530" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1530" s="2"/>
     </row>
-    <row r="1531" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1531" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1531" s="2"/>
     </row>
-    <row r="1545" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1545" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1545" s="2"/>
     </row>
-    <row r="1554" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1554" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1554" s="2"/>
     </row>
-    <row r="1555" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1555" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1555" s="2"/>
     </row>
-    <row r="1556" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1556" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1556" s="2"/>
     </row>
-    <row r="1557" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1557" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1557" s="2"/>
     </row>
-    <row r="1560" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1560" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1560" s="2"/>
     </row>
-    <row r="1564" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1564" s="2"/>
     </row>
-    <row r="1565" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1565" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1565" s="2"/>
     </row>
-    <row r="1568" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1568" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1568" s="2"/>
     </row>
-    <row r="1569" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1569" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1569" s="2"/>
     </row>
-    <row r="1575" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1575" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1575" s="2"/>
     </row>
-    <row r="1578" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1578" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1578" s="2"/>
     </row>
-    <row r="1579" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1579" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1579" s="2"/>
     </row>
-    <row r="1580" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1580" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1580" s="2"/>
     </row>
-    <row r="1585" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1585" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1585" s="2"/>
     </row>
-    <row r="1586" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1586" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1586" s="2"/>
     </row>
-    <row r="1589" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1589" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1589" s="2"/>
     </row>
-    <row r="1590" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1590" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1590" s="2"/>
     </row>
-    <row r="1592" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1592" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1592" s="2"/>
     </row>
-    <row r="1595" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1595" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1595" s="2"/>
     </row>
-    <row r="1599" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1599" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1599" s="2"/>
     </row>
-    <row r="1601" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1601" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1601" s="2"/>
     </row>
-    <row r="1616" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1616" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1616" s="2"/>
     </row>
-    <row r="1621" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1621" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1621" s="2"/>
     </row>
-    <row r="1623" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1623" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1623" s="2"/>
     </row>
-    <row r="1629" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1629" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1629" s="2"/>
     </row>
-    <row r="1630" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1630" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1630" s="2"/>
     </row>
-    <row r="1631" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1631" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1631" s="2"/>
     </row>
-    <row r="1640" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1640" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1640" s="2"/>
     </row>
-    <row r="1653" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1653" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1653" s="2"/>
     </row>
-    <row r="1657" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1657" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1657" s="2"/>
     </row>
-    <row r="1660" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1660" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1660" s="2"/>
     </row>
-    <row r="1662" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1662" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1662" s="2"/>
     </row>
-    <row r="1684" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1684" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1684" s="2"/>
     </row>
-    <row r="1690" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1690" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1690" s="2"/>
     </row>
-    <row r="1691" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1691" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1691" s="2"/>
     </row>
-    <row r="1692" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1692" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1692" s="2"/>
     </row>
-    <row r="1700" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1700" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1700" s="2"/>
     </row>
-    <row r="1701" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1701" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1701" s="2"/>
     </row>
-    <row r="1726" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1726" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1726" s="2"/>
     </row>
-    <row r="1739" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1739" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1739" s="2"/>
     </row>
-    <row r="1746" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1746" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1746" s="2"/>
     </row>
-    <row r="1747" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1747" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1747" s="2"/>
     </row>
-    <row r="1749" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1749" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1749" s="2"/>
     </row>
-    <row r="1760" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1760" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1760" s="2"/>
     </row>
-    <row r="1761" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1761" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1761" s="2"/>
     </row>
-    <row r="1762" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1762" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1762" s="2"/>
     </row>
-    <row r="1767" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1767" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1767" s="2"/>
     </row>
-    <row r="1768" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1768" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1768" s="2"/>
     </row>
-    <row r="1769" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1769" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1769" s="2"/>
     </row>
-    <row r="1772" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1772" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1772" s="2"/>
     </row>
-    <row r="1773" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1773" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1773" s="2"/>
     </row>
-    <row r="1777" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1777" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1777" s="2"/>
     </row>
-    <row r="1779" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1779" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1779" s="2"/>
     </row>
-    <row r="1797" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1797" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1797" s="2"/>
     </row>
-    <row r="1813" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1813" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1813" s="2"/>
     </row>
-    <row r="1815" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1815" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1815" s="2"/>
     </row>
-    <row r="1822" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1822" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1822" s="2"/>
     </row>
   </sheetData>
@@ -4097,13 +4100,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6417DC7C-79BE-4A2B-AE05-1ABD63582D22}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>90</v>
       </c>
@@ -4147,7 +4150,7 @@
         <v>1.9224999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>60</v>
       </c>
@@ -4171,7 +4174,7 @@
         <v>4.1999999999999996E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>80</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>4.9475000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -4219,7 +4222,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -4243,7 +4246,7 @@
         <v>5.9774999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>9.1024999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4291,7 +4294,7 @@
         <v>0.11657500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>70</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>0.13042500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>50</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>0.131025</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>0.13212499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>100</v>
       </c>
@@ -4387,102 +4390,104 @@
         <v>0.15492500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4500,16 +4505,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F3051F-7FF6-4136-81F4-19FDDFFC1B44}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <v>40</v>
       </c>
@@ -4549,7 +4554,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>30</v>
       </c>
@@ -4589,7 +4594,7 @@
         <v>1.89E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -4629,7 +4634,7 @@
         <v>1.9125E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -4669,7 +4674,7 @@
         <v>3.3125000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4709,7 +4714,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -4749,7 +4754,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>70</v>
       </c>
@@ -4789,7 +4794,7 @@
         <v>5.0525E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>100</v>
       </c>
@@ -4829,7 +4834,7 @@
         <v>7.5149999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>90</v>
       </c>
@@ -4869,7 +4874,7 @@
         <v>8.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>60</v>
       </c>
@@ -4909,7 +4914,7 @@
         <v>9.3024999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>50</v>
       </c>
